--- a/QMS/master_templates/ansrS_QA_Tmplt_Devo (ATP) QA sheet_1.2.xlsx
+++ b/QMS/master_templates/ansrS_QA_Tmplt_Devo (ATP) QA sheet_1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.2.20\Prod Engineering\qms_share_point\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.2.20\prod engineering\master_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ref" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="name">Ref!$D$4:$F$22</definedName>
+    <definedName name="name">Ref!$D$4:$F$220</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -384,9 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -395,6 +392,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10832,7 +10832,7 @@
   <dimension ref="D1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F17"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10843,11 +10843,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
@@ -10866,77 +10866,77 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>

--- a/QMS/master_templates/ansrS_QA_Tmplt_Devo (ATP) QA sheet_1.2.xlsx
+++ b/QMS/master_templates/ansrS_QA_Tmplt_Devo (ATP) QA sheet_1.2.xlsx
@@ -10795,9 +10795,3591 @@
     <row r="596" spans="1:9"/>
     <row r="597" spans="1:9"/>
   </sheetData>
-  <dataValidations count="1195">
+  <dataValidations count="2389">
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="G3:G592" type="list">
       <formula1>"Fixed,FixNotRequired"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1" type="custom">
+      <formula1>IFNA(VLOOKUP(D1,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D1,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E2" type="custom">
+      <formula1>IFNA(VLOOKUP(D2,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D2,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E3" type="custom">
+      <formula1>IFNA(VLOOKUP(D3,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D3,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E4" type="custom">
+      <formula1>IFNA(VLOOKUP(D4,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D4,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E5" type="custom">
+      <formula1>IFNA(VLOOKUP(D5,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D5,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E6" type="custom">
+      <formula1>IFNA(VLOOKUP(D6,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D6,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E7" type="custom">
+      <formula1>IFNA(VLOOKUP(D7,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D7,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E8" type="custom">
+      <formula1>IFNA(VLOOKUP(D8,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D8,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E9" type="custom">
+      <formula1>IFNA(VLOOKUP(D9,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D9,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D10,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D10,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E11" type="custom">
+      <formula1>IFNA(VLOOKUP(D11,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D11,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E12" type="custom">
+      <formula1>IFNA(VLOOKUP(D12,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D12,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E13" type="custom">
+      <formula1>IFNA(VLOOKUP(D13,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D13,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E14" type="custom">
+      <formula1>IFNA(VLOOKUP(D14,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D14,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E15" type="custom">
+      <formula1>IFNA(VLOOKUP(D15,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D15,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E16" type="custom">
+      <formula1>IFNA(VLOOKUP(D16,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D16,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E17" type="custom">
+      <formula1>IFNA(VLOOKUP(D17,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D17,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E18" type="custom">
+      <formula1>IFNA(VLOOKUP(D18,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D18,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E19" type="custom">
+      <formula1>IFNA(VLOOKUP(D19,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D19,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E20" type="custom">
+      <formula1>IFNA(VLOOKUP(D20,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D20,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E21" type="custom">
+      <formula1>IFNA(VLOOKUP(D21,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D21,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E22" type="custom">
+      <formula1>IFNA(VLOOKUP(D22,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D22,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E23" type="custom">
+      <formula1>IFNA(VLOOKUP(D23,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D23,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E24" type="custom">
+      <formula1>IFNA(VLOOKUP(D24,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D24,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E25" type="custom">
+      <formula1>IFNA(VLOOKUP(D25,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D25,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E26" type="custom">
+      <formula1>IFNA(VLOOKUP(D26,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D26,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E27" type="custom">
+      <formula1>IFNA(VLOOKUP(D27,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D27,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E28" type="custom">
+      <formula1>IFNA(VLOOKUP(D28,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D28,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E29" type="custom">
+      <formula1>IFNA(VLOOKUP(D29,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D29,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E30" type="custom">
+      <formula1>IFNA(VLOOKUP(D30,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D30,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E31" type="custom">
+      <formula1>IFNA(VLOOKUP(D31,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D31,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E32" type="custom">
+      <formula1>IFNA(VLOOKUP(D32,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D32,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E33" type="custom">
+      <formula1>IFNA(VLOOKUP(D33,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D33,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E34" type="custom">
+      <formula1>IFNA(VLOOKUP(D34,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D34,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E35" type="custom">
+      <formula1>IFNA(VLOOKUP(D35,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D35,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E36" type="custom">
+      <formula1>IFNA(VLOOKUP(D36,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D36,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E37" type="custom">
+      <formula1>IFNA(VLOOKUP(D37,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D37,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E38" type="custom">
+      <formula1>IFNA(VLOOKUP(D38,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D38,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E39" type="custom">
+      <formula1>IFNA(VLOOKUP(D39,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D39,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E40" type="custom">
+      <formula1>IFNA(VLOOKUP(D40,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D40,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E41" type="custom">
+      <formula1>IFNA(VLOOKUP(D41,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D41,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E42" type="custom">
+      <formula1>IFNA(VLOOKUP(D42,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D42,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E43" type="custom">
+      <formula1>IFNA(VLOOKUP(D43,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D43,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E44" type="custom">
+      <formula1>IFNA(VLOOKUP(D44,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D44,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E45" type="custom">
+      <formula1>IFNA(VLOOKUP(D45,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D45,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E46" type="custom">
+      <formula1>IFNA(VLOOKUP(D46,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D46,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E47" type="custom">
+      <formula1>IFNA(VLOOKUP(D47,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D47,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E48" type="custom">
+      <formula1>IFNA(VLOOKUP(D48,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D48,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E49" type="custom">
+      <formula1>IFNA(VLOOKUP(D49,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D49,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E50" type="custom">
+      <formula1>IFNA(VLOOKUP(D50,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D50,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E51" type="custom">
+      <formula1>IFNA(VLOOKUP(D51,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D51,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E52" type="custom">
+      <formula1>IFNA(VLOOKUP(D52,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D52,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E53" type="custom">
+      <formula1>IFNA(VLOOKUP(D53,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D53,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E54" type="custom">
+      <formula1>IFNA(VLOOKUP(D54,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D54,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E55" type="custom">
+      <formula1>IFNA(VLOOKUP(D55,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D55,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E56" type="custom">
+      <formula1>IFNA(VLOOKUP(D56,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D56,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E57" type="custom">
+      <formula1>IFNA(VLOOKUP(D57,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D57,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E58" type="custom">
+      <formula1>IFNA(VLOOKUP(D58,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D58,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E59" type="custom">
+      <formula1>IFNA(VLOOKUP(D59,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D59,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E60" type="custom">
+      <formula1>IFNA(VLOOKUP(D60,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D60,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E61" type="custom">
+      <formula1>IFNA(VLOOKUP(D61,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D61,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E62" type="custom">
+      <formula1>IFNA(VLOOKUP(D62,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D62,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E63" type="custom">
+      <formula1>IFNA(VLOOKUP(D63,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D63,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E64" type="custom">
+      <formula1>IFNA(VLOOKUP(D64,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D64,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E65" type="custom">
+      <formula1>IFNA(VLOOKUP(D65,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D65,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E66" type="custom">
+      <formula1>IFNA(VLOOKUP(D66,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D66,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E67" type="custom">
+      <formula1>IFNA(VLOOKUP(D67,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D67,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E68" type="custom">
+      <formula1>IFNA(VLOOKUP(D68,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D68,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E69" type="custom">
+      <formula1>IFNA(VLOOKUP(D69,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D69,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E70" type="custom">
+      <formula1>IFNA(VLOOKUP(D70,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D70,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E71" type="custom">
+      <formula1>IFNA(VLOOKUP(D71,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D71,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E72" type="custom">
+      <formula1>IFNA(VLOOKUP(D72,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D72,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E73" type="custom">
+      <formula1>IFNA(VLOOKUP(D73,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D73,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E74" type="custom">
+      <formula1>IFNA(VLOOKUP(D74,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D74,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E75" type="custom">
+      <formula1>IFNA(VLOOKUP(D75,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D75,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E76" type="custom">
+      <formula1>IFNA(VLOOKUP(D76,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D76,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E77" type="custom">
+      <formula1>IFNA(VLOOKUP(D77,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D77,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E78" type="custom">
+      <formula1>IFNA(VLOOKUP(D78,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D78,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E79" type="custom">
+      <formula1>IFNA(VLOOKUP(D79,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D79,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E80" type="custom">
+      <formula1>IFNA(VLOOKUP(D80,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D80,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E81" type="custom">
+      <formula1>IFNA(VLOOKUP(D81,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D81,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E82" type="custom">
+      <formula1>IFNA(VLOOKUP(D82,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D82,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E83" type="custom">
+      <formula1>IFNA(VLOOKUP(D83,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D83,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E84" type="custom">
+      <formula1>IFNA(VLOOKUP(D84,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D84,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E85" type="custom">
+      <formula1>IFNA(VLOOKUP(D85,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D85,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E86" type="custom">
+      <formula1>IFNA(VLOOKUP(D86,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D86,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E87" type="custom">
+      <formula1>IFNA(VLOOKUP(D87,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D87,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E88" type="custom">
+      <formula1>IFNA(VLOOKUP(D88,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D88,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E89" type="custom">
+      <formula1>IFNA(VLOOKUP(D89,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D89,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E90" type="custom">
+      <formula1>IFNA(VLOOKUP(D90,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D90,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E91" type="custom">
+      <formula1>IFNA(VLOOKUP(D91,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D91,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E92" type="custom">
+      <formula1>IFNA(VLOOKUP(D92,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D92,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E93" type="custom">
+      <formula1>IFNA(VLOOKUP(D93,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D93,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E94" type="custom">
+      <formula1>IFNA(VLOOKUP(D94,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D94,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E95" type="custom">
+      <formula1>IFNA(VLOOKUP(D95,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D95,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E96" type="custom">
+      <formula1>IFNA(VLOOKUP(D96,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D96,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E97" type="custom">
+      <formula1>IFNA(VLOOKUP(D97,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D97,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E98" type="custom">
+      <formula1>IFNA(VLOOKUP(D98,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D98,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E99" type="custom">
+      <formula1>IFNA(VLOOKUP(D99,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D99,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E100" type="custom">
+      <formula1>IFNA(VLOOKUP(D100,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D100,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E101" type="custom">
+      <formula1>IFNA(VLOOKUP(D101,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D101,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E102" type="custom">
+      <formula1>IFNA(VLOOKUP(D102,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D102,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E103" type="custom">
+      <formula1>IFNA(VLOOKUP(D103,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D103,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E104" type="custom">
+      <formula1>IFNA(VLOOKUP(D104,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D104,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E105" type="custom">
+      <formula1>IFNA(VLOOKUP(D105,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D105,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E106" type="custom">
+      <formula1>IFNA(VLOOKUP(D106,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D106,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E107" type="custom">
+      <formula1>IFNA(VLOOKUP(D107,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D107,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E108" type="custom">
+      <formula1>IFNA(VLOOKUP(D108,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D108,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E109" type="custom">
+      <formula1>IFNA(VLOOKUP(D109,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D109,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E110" type="custom">
+      <formula1>IFNA(VLOOKUP(D110,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D110,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E111" type="custom">
+      <formula1>IFNA(VLOOKUP(D111,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D111,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E112" type="custom">
+      <formula1>IFNA(VLOOKUP(D112,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D112,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E113" type="custom">
+      <formula1>IFNA(VLOOKUP(D113,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D113,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E114" type="custom">
+      <formula1>IFNA(VLOOKUP(D114,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D114,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E115" type="custom">
+      <formula1>IFNA(VLOOKUP(D115,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D115,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E116" type="custom">
+      <formula1>IFNA(VLOOKUP(D116,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D116,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E117" type="custom">
+      <formula1>IFNA(VLOOKUP(D117,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D117,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E118" type="custom">
+      <formula1>IFNA(VLOOKUP(D118,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D118,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E119" type="custom">
+      <formula1>IFNA(VLOOKUP(D119,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D119,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E120" type="custom">
+      <formula1>IFNA(VLOOKUP(D120,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D120,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E121" type="custom">
+      <formula1>IFNA(VLOOKUP(D121,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D121,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E122" type="custom">
+      <formula1>IFNA(VLOOKUP(D122,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D122,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E123" type="custom">
+      <formula1>IFNA(VLOOKUP(D123,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D123,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E124" type="custom">
+      <formula1>IFNA(VLOOKUP(D124,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D124,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E125" type="custom">
+      <formula1>IFNA(VLOOKUP(D125,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D125,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E126" type="custom">
+      <formula1>IFNA(VLOOKUP(D126,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D126,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E127" type="custom">
+      <formula1>IFNA(VLOOKUP(D127,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D127,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E128" type="custom">
+      <formula1>IFNA(VLOOKUP(D128,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D128,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E129" type="custom">
+      <formula1>IFNA(VLOOKUP(D129,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D129,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E130" type="custom">
+      <formula1>IFNA(VLOOKUP(D130,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D130,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E131" type="custom">
+      <formula1>IFNA(VLOOKUP(D131,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D131,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E132" type="custom">
+      <formula1>IFNA(VLOOKUP(D132,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D132,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E133" type="custom">
+      <formula1>IFNA(VLOOKUP(D133,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D133,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E134" type="custom">
+      <formula1>IFNA(VLOOKUP(D134,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D134,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E135" type="custom">
+      <formula1>IFNA(VLOOKUP(D135,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D135,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E136" type="custom">
+      <formula1>IFNA(VLOOKUP(D136,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D136,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E137" type="custom">
+      <formula1>IFNA(VLOOKUP(D137,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D137,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E138" type="custom">
+      <formula1>IFNA(VLOOKUP(D138,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D138,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E139" type="custom">
+      <formula1>IFNA(VLOOKUP(D139,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D139,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E140" type="custom">
+      <formula1>IFNA(VLOOKUP(D140,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D140,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E141" type="custom">
+      <formula1>IFNA(VLOOKUP(D141,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D141,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E142" type="custom">
+      <formula1>IFNA(VLOOKUP(D142,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D142,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E143" type="custom">
+      <formula1>IFNA(VLOOKUP(D143,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D143,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E144" type="custom">
+      <formula1>IFNA(VLOOKUP(D144,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D144,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E145" type="custom">
+      <formula1>IFNA(VLOOKUP(D145,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D145,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E146" type="custom">
+      <formula1>IFNA(VLOOKUP(D146,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D146,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E147" type="custom">
+      <formula1>IFNA(VLOOKUP(D147,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D147,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E148" type="custom">
+      <formula1>IFNA(VLOOKUP(D148,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D148,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E149" type="custom">
+      <formula1>IFNA(VLOOKUP(D149,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D149,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E150" type="custom">
+      <formula1>IFNA(VLOOKUP(D150,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D150,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E151" type="custom">
+      <formula1>IFNA(VLOOKUP(D151,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D151,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E152" type="custom">
+      <formula1>IFNA(VLOOKUP(D152,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D152,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E153" type="custom">
+      <formula1>IFNA(VLOOKUP(D153,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D153,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E154" type="custom">
+      <formula1>IFNA(VLOOKUP(D154,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D154,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E155" type="custom">
+      <formula1>IFNA(VLOOKUP(D155,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D155,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E156" type="custom">
+      <formula1>IFNA(VLOOKUP(D156,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D156,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E157" type="custom">
+      <formula1>IFNA(VLOOKUP(D157,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D157,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E158" type="custom">
+      <formula1>IFNA(VLOOKUP(D158,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D158,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E159" type="custom">
+      <formula1>IFNA(VLOOKUP(D159,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D159,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E160" type="custom">
+      <formula1>IFNA(VLOOKUP(D160,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D160,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E161" type="custom">
+      <formula1>IFNA(VLOOKUP(D161,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D161,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E162" type="custom">
+      <formula1>IFNA(VLOOKUP(D162,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D162,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E163" type="custom">
+      <formula1>IFNA(VLOOKUP(D163,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D163,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E164" type="custom">
+      <formula1>IFNA(VLOOKUP(D164,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D164,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E165" type="custom">
+      <formula1>IFNA(VLOOKUP(D165,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D165,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E166" type="custom">
+      <formula1>IFNA(VLOOKUP(D166,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D166,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E167" type="custom">
+      <formula1>IFNA(VLOOKUP(D167,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D167,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E168" type="custom">
+      <formula1>IFNA(VLOOKUP(D168,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D168,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E169" type="custom">
+      <formula1>IFNA(VLOOKUP(D169,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D169,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E170" type="custom">
+      <formula1>IFNA(VLOOKUP(D170,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D170,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E171" type="custom">
+      <formula1>IFNA(VLOOKUP(D171,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D171,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E172" type="custom">
+      <formula1>IFNA(VLOOKUP(D172,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D172,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E173" type="custom">
+      <formula1>IFNA(VLOOKUP(D173,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D173,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E174" type="custom">
+      <formula1>IFNA(VLOOKUP(D174,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D174,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E175" type="custom">
+      <formula1>IFNA(VLOOKUP(D175,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D175,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E176" type="custom">
+      <formula1>IFNA(VLOOKUP(D176,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D176,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E177" type="custom">
+      <formula1>IFNA(VLOOKUP(D177,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D177,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E178" type="custom">
+      <formula1>IFNA(VLOOKUP(D178,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D178,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E179" type="custom">
+      <formula1>IFNA(VLOOKUP(D179,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D179,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E180" type="custom">
+      <formula1>IFNA(VLOOKUP(D180,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D180,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E181" type="custom">
+      <formula1>IFNA(VLOOKUP(D181,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D181,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E182" type="custom">
+      <formula1>IFNA(VLOOKUP(D182,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D182,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E183" type="custom">
+      <formula1>IFNA(VLOOKUP(D183,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D183,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E184" type="custom">
+      <formula1>IFNA(VLOOKUP(D184,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D184,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E185" type="custom">
+      <formula1>IFNA(VLOOKUP(D185,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D185,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E186" type="custom">
+      <formula1>IFNA(VLOOKUP(D186,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D186,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E187" type="custom">
+      <formula1>IFNA(VLOOKUP(D187,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D187,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E188" type="custom">
+      <formula1>IFNA(VLOOKUP(D188,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D188,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E189" type="custom">
+      <formula1>IFNA(VLOOKUP(D189,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D189,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E190" type="custom">
+      <formula1>IFNA(VLOOKUP(D190,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D190,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E191" type="custom">
+      <formula1>IFNA(VLOOKUP(D191,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D191,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E192" type="custom">
+      <formula1>IFNA(VLOOKUP(D192,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D192,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E193" type="custom">
+      <formula1>IFNA(VLOOKUP(D193,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D193,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E194" type="custom">
+      <formula1>IFNA(VLOOKUP(D194,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D194,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E195" type="custom">
+      <formula1>IFNA(VLOOKUP(D195,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D195,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E196" type="custom">
+      <formula1>IFNA(VLOOKUP(D196,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D196,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E197" type="custom">
+      <formula1>IFNA(VLOOKUP(D197,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D197,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E198" type="custom">
+      <formula1>IFNA(VLOOKUP(D198,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D198,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E199" type="custom">
+      <formula1>IFNA(VLOOKUP(D199,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D199,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E200" type="custom">
+      <formula1>IFNA(VLOOKUP(D200,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D200,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E201" type="custom">
+      <formula1>IFNA(VLOOKUP(D201,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D201,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E202" type="custom">
+      <formula1>IFNA(VLOOKUP(D202,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D202,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E203" type="custom">
+      <formula1>IFNA(VLOOKUP(D203,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D203,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E204" type="custom">
+      <formula1>IFNA(VLOOKUP(D204,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D204,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E205" type="custom">
+      <formula1>IFNA(VLOOKUP(D205,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D205,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E206" type="custom">
+      <formula1>IFNA(VLOOKUP(D206,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D206,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E207" type="custom">
+      <formula1>IFNA(VLOOKUP(D207,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D207,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E208" type="custom">
+      <formula1>IFNA(VLOOKUP(D208,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D208,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E209" type="custom">
+      <formula1>IFNA(VLOOKUP(D209,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D209,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E210" type="custom">
+      <formula1>IFNA(VLOOKUP(D210,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D210,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E211" type="custom">
+      <formula1>IFNA(VLOOKUP(D211,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D211,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E212" type="custom">
+      <formula1>IFNA(VLOOKUP(D212,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D212,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E213" type="custom">
+      <formula1>IFNA(VLOOKUP(D213,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D213,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E214" type="custom">
+      <formula1>IFNA(VLOOKUP(D214,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D214,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E215" type="custom">
+      <formula1>IFNA(VLOOKUP(D215,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D215,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E216" type="custom">
+      <formula1>IFNA(VLOOKUP(D216,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D216,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E217" type="custom">
+      <formula1>IFNA(VLOOKUP(D217,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D217,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E218" type="custom">
+      <formula1>IFNA(VLOOKUP(D218,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D218,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E219" type="custom">
+      <formula1>IFNA(VLOOKUP(D219,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D219,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E220" type="custom">
+      <formula1>IFNA(VLOOKUP(D220,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D220,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E221" type="custom">
+      <formula1>IFNA(VLOOKUP(D221,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D221,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E222" type="custom">
+      <formula1>IFNA(VLOOKUP(D222,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D222,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E223" type="custom">
+      <formula1>IFNA(VLOOKUP(D223,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D223,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E224" type="custom">
+      <formula1>IFNA(VLOOKUP(D224,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D224,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E225" type="custom">
+      <formula1>IFNA(VLOOKUP(D225,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D225,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E226" type="custom">
+      <formula1>IFNA(VLOOKUP(D226,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D226,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E227" type="custom">
+      <formula1>IFNA(VLOOKUP(D227,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D227,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E228" type="custom">
+      <formula1>IFNA(VLOOKUP(D228,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D228,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E229" type="custom">
+      <formula1>IFNA(VLOOKUP(D229,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D229,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E230" type="custom">
+      <formula1>IFNA(VLOOKUP(D230,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D230,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E231" type="custom">
+      <formula1>IFNA(VLOOKUP(D231,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D231,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E232" type="custom">
+      <formula1>IFNA(VLOOKUP(D232,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D232,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E233" type="custom">
+      <formula1>IFNA(VLOOKUP(D233,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D233,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E234" type="custom">
+      <formula1>IFNA(VLOOKUP(D234,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D234,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E235" type="custom">
+      <formula1>IFNA(VLOOKUP(D235,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D235,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E236" type="custom">
+      <formula1>IFNA(VLOOKUP(D236,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D236,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E237" type="custom">
+      <formula1>IFNA(VLOOKUP(D237,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D237,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E238" type="custom">
+      <formula1>IFNA(VLOOKUP(D238,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D238,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E239" type="custom">
+      <formula1>IFNA(VLOOKUP(D239,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D239,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E240" type="custom">
+      <formula1>IFNA(VLOOKUP(D240,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D240,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E241" type="custom">
+      <formula1>IFNA(VLOOKUP(D241,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D241,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E242" type="custom">
+      <formula1>IFNA(VLOOKUP(D242,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D242,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E243" type="custom">
+      <formula1>IFNA(VLOOKUP(D243,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D243,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E244" type="custom">
+      <formula1>IFNA(VLOOKUP(D244,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D244,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E245" type="custom">
+      <formula1>IFNA(VLOOKUP(D245,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D245,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E246" type="custom">
+      <formula1>IFNA(VLOOKUP(D246,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D246,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E247" type="custom">
+      <formula1>IFNA(VLOOKUP(D247,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D247,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E248" type="custom">
+      <formula1>IFNA(VLOOKUP(D248,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D248,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E249" type="custom">
+      <formula1>IFNA(VLOOKUP(D249,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D249,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E250" type="custom">
+      <formula1>IFNA(VLOOKUP(D250,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D250,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E251" type="custom">
+      <formula1>IFNA(VLOOKUP(D251,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D251,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E252" type="custom">
+      <formula1>IFNA(VLOOKUP(D252,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D252,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E253" type="custom">
+      <formula1>IFNA(VLOOKUP(D253,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D253,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E254" type="custom">
+      <formula1>IFNA(VLOOKUP(D254,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D254,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E255" type="custom">
+      <formula1>IFNA(VLOOKUP(D255,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D255,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E256" type="custom">
+      <formula1>IFNA(VLOOKUP(D256,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D256,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E257" type="custom">
+      <formula1>IFNA(VLOOKUP(D257,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D257,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E258" type="custom">
+      <formula1>IFNA(VLOOKUP(D258,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D258,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E259" type="custom">
+      <formula1>IFNA(VLOOKUP(D259,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D259,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E260" type="custom">
+      <formula1>IFNA(VLOOKUP(D260,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D260,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E261" type="custom">
+      <formula1>IFNA(VLOOKUP(D261,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D261,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E262" type="custom">
+      <formula1>IFNA(VLOOKUP(D262,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D262,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E263" type="custom">
+      <formula1>IFNA(VLOOKUP(D263,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D263,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E264" type="custom">
+      <formula1>IFNA(VLOOKUP(D264,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D264,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E265" type="custom">
+      <formula1>IFNA(VLOOKUP(D265,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D265,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E266" type="custom">
+      <formula1>IFNA(VLOOKUP(D266,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D266,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E267" type="custom">
+      <formula1>IFNA(VLOOKUP(D267,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D267,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E268" type="custom">
+      <formula1>IFNA(VLOOKUP(D268,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D268,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E269" type="custom">
+      <formula1>IFNA(VLOOKUP(D269,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D269,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E270" type="custom">
+      <formula1>IFNA(VLOOKUP(D270,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D270,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E271" type="custom">
+      <formula1>IFNA(VLOOKUP(D271,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D271,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E272" type="custom">
+      <formula1>IFNA(VLOOKUP(D272,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D272,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E273" type="custom">
+      <formula1>IFNA(VLOOKUP(D273,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D273,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E274" type="custom">
+      <formula1>IFNA(VLOOKUP(D274,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D274,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E275" type="custom">
+      <formula1>IFNA(VLOOKUP(D275,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D275,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E276" type="custom">
+      <formula1>IFNA(VLOOKUP(D276,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D276,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E277" type="custom">
+      <formula1>IFNA(VLOOKUP(D277,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D277,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E278" type="custom">
+      <formula1>IFNA(VLOOKUP(D278,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D278,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E279" type="custom">
+      <formula1>IFNA(VLOOKUP(D279,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D279,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E280" type="custom">
+      <formula1>IFNA(VLOOKUP(D280,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D280,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E281" type="custom">
+      <formula1>IFNA(VLOOKUP(D281,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D281,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E282" type="custom">
+      <formula1>IFNA(VLOOKUP(D282,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D282,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E283" type="custom">
+      <formula1>IFNA(VLOOKUP(D283,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D283,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E284" type="custom">
+      <formula1>IFNA(VLOOKUP(D284,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D284,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E285" type="custom">
+      <formula1>IFNA(VLOOKUP(D285,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D285,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E286" type="custom">
+      <formula1>IFNA(VLOOKUP(D286,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D286,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E287" type="custom">
+      <formula1>IFNA(VLOOKUP(D287,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D287,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E288" type="custom">
+      <formula1>IFNA(VLOOKUP(D288,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D288,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E289" type="custom">
+      <formula1>IFNA(VLOOKUP(D289,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D289,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E290" type="custom">
+      <formula1>IFNA(VLOOKUP(D290,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D290,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E291" type="custom">
+      <formula1>IFNA(VLOOKUP(D291,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D291,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E292" type="custom">
+      <formula1>IFNA(VLOOKUP(D292,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D292,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E293" type="custom">
+      <formula1>IFNA(VLOOKUP(D293,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D293,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E294" type="custom">
+      <formula1>IFNA(VLOOKUP(D294,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D294,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E295" type="custom">
+      <formula1>IFNA(VLOOKUP(D295,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D295,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E296" type="custom">
+      <formula1>IFNA(VLOOKUP(D296,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D296,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E297" type="custom">
+      <formula1>IFNA(VLOOKUP(D297,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D297,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E298" type="custom">
+      <formula1>IFNA(VLOOKUP(D298,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D298,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E299" type="custom">
+      <formula1>IFNA(VLOOKUP(D299,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D299,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E300" type="custom">
+      <formula1>IFNA(VLOOKUP(D300,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D300,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E301" type="custom">
+      <formula1>IFNA(VLOOKUP(D301,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D301,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E302" type="custom">
+      <formula1>IFNA(VLOOKUP(D302,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D302,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E303" type="custom">
+      <formula1>IFNA(VLOOKUP(D303,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D303,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E304" type="custom">
+      <formula1>IFNA(VLOOKUP(D304,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D304,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E305" type="custom">
+      <formula1>IFNA(VLOOKUP(D305,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D305,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E306" type="custom">
+      <formula1>IFNA(VLOOKUP(D306,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D306,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E307" type="custom">
+      <formula1>IFNA(VLOOKUP(D307,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D307,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E308" type="custom">
+      <formula1>IFNA(VLOOKUP(D308,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D308,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E309" type="custom">
+      <formula1>IFNA(VLOOKUP(D309,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D309,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E310" type="custom">
+      <formula1>IFNA(VLOOKUP(D310,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D310,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E311" type="custom">
+      <formula1>IFNA(VLOOKUP(D311,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D311,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E312" type="custom">
+      <formula1>IFNA(VLOOKUP(D312,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D312,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E313" type="custom">
+      <formula1>IFNA(VLOOKUP(D313,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D313,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E314" type="custom">
+      <formula1>IFNA(VLOOKUP(D314,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D314,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E315" type="custom">
+      <formula1>IFNA(VLOOKUP(D315,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D315,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E316" type="custom">
+      <formula1>IFNA(VLOOKUP(D316,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D316,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E317" type="custom">
+      <formula1>IFNA(VLOOKUP(D317,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D317,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E318" type="custom">
+      <formula1>IFNA(VLOOKUP(D318,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D318,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E319" type="custom">
+      <formula1>IFNA(VLOOKUP(D319,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D319,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E320" type="custom">
+      <formula1>IFNA(VLOOKUP(D320,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D320,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E321" type="custom">
+      <formula1>IFNA(VLOOKUP(D321,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D321,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E322" type="custom">
+      <formula1>IFNA(VLOOKUP(D322,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D322,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E323" type="custom">
+      <formula1>IFNA(VLOOKUP(D323,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D323,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E324" type="custom">
+      <formula1>IFNA(VLOOKUP(D324,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D324,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E325" type="custom">
+      <formula1>IFNA(VLOOKUP(D325,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D325,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E326" type="custom">
+      <formula1>IFNA(VLOOKUP(D326,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D326,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E327" type="custom">
+      <formula1>IFNA(VLOOKUP(D327,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D327,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E328" type="custom">
+      <formula1>IFNA(VLOOKUP(D328,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D328,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E329" type="custom">
+      <formula1>IFNA(VLOOKUP(D329,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D329,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E330" type="custom">
+      <formula1>IFNA(VLOOKUP(D330,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D330,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E331" type="custom">
+      <formula1>IFNA(VLOOKUP(D331,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D331,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E332" type="custom">
+      <formula1>IFNA(VLOOKUP(D332,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D332,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E333" type="custom">
+      <formula1>IFNA(VLOOKUP(D333,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D333,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E334" type="custom">
+      <formula1>IFNA(VLOOKUP(D334,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D334,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E335" type="custom">
+      <formula1>IFNA(VLOOKUP(D335,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D335,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E336" type="custom">
+      <formula1>IFNA(VLOOKUP(D336,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D336,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E337" type="custom">
+      <formula1>IFNA(VLOOKUP(D337,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D337,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E338" type="custom">
+      <formula1>IFNA(VLOOKUP(D338,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D338,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E339" type="custom">
+      <formula1>IFNA(VLOOKUP(D339,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D339,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E340" type="custom">
+      <formula1>IFNA(VLOOKUP(D340,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D340,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E341" type="custom">
+      <formula1>IFNA(VLOOKUP(D341,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D341,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E342" type="custom">
+      <formula1>IFNA(VLOOKUP(D342,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D342,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E343" type="custom">
+      <formula1>IFNA(VLOOKUP(D343,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D343,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E344" type="custom">
+      <formula1>IFNA(VLOOKUP(D344,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D344,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E345" type="custom">
+      <formula1>IFNA(VLOOKUP(D345,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D345,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E346" type="custom">
+      <formula1>IFNA(VLOOKUP(D346,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D346,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E347" type="custom">
+      <formula1>IFNA(VLOOKUP(D347,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D347,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E348" type="custom">
+      <formula1>IFNA(VLOOKUP(D348,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D348,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E349" type="custom">
+      <formula1>IFNA(VLOOKUP(D349,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D349,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E350" type="custom">
+      <formula1>IFNA(VLOOKUP(D350,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D350,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E351" type="custom">
+      <formula1>IFNA(VLOOKUP(D351,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D351,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E352" type="custom">
+      <formula1>IFNA(VLOOKUP(D352,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D352,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E353" type="custom">
+      <formula1>IFNA(VLOOKUP(D353,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D353,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E354" type="custom">
+      <formula1>IFNA(VLOOKUP(D354,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D354,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E355" type="custom">
+      <formula1>IFNA(VLOOKUP(D355,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D355,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E356" type="custom">
+      <formula1>IFNA(VLOOKUP(D356,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D356,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E357" type="custom">
+      <formula1>IFNA(VLOOKUP(D357,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D357,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E358" type="custom">
+      <formula1>IFNA(VLOOKUP(D358,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D358,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E359" type="custom">
+      <formula1>IFNA(VLOOKUP(D359,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D359,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E360" type="custom">
+      <formula1>IFNA(VLOOKUP(D360,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D360,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E361" type="custom">
+      <formula1>IFNA(VLOOKUP(D361,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D361,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E362" type="custom">
+      <formula1>IFNA(VLOOKUP(D362,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D362,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E363" type="custom">
+      <formula1>IFNA(VLOOKUP(D363,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D363,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E364" type="custom">
+      <formula1>IFNA(VLOOKUP(D364,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D364,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E365" type="custom">
+      <formula1>IFNA(VLOOKUP(D365,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D365,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E366" type="custom">
+      <formula1>IFNA(VLOOKUP(D366,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D366,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E367" type="custom">
+      <formula1>IFNA(VLOOKUP(D367,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D367,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E368" type="custom">
+      <formula1>IFNA(VLOOKUP(D368,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D368,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E369" type="custom">
+      <formula1>IFNA(VLOOKUP(D369,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D369,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E370" type="custom">
+      <formula1>IFNA(VLOOKUP(D370,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D370,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E371" type="custom">
+      <formula1>IFNA(VLOOKUP(D371,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D371,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E372" type="custom">
+      <formula1>IFNA(VLOOKUP(D372,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D372,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E373" type="custom">
+      <formula1>IFNA(VLOOKUP(D373,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D373,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E374" type="custom">
+      <formula1>IFNA(VLOOKUP(D374,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D374,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E375" type="custom">
+      <formula1>IFNA(VLOOKUP(D375,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D375,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E376" type="custom">
+      <formula1>IFNA(VLOOKUP(D376,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D376,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E377" type="custom">
+      <formula1>IFNA(VLOOKUP(D377,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D377,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E378" type="custom">
+      <formula1>IFNA(VLOOKUP(D378,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D378,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E379" type="custom">
+      <formula1>IFNA(VLOOKUP(D379,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D379,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E380" type="custom">
+      <formula1>IFNA(VLOOKUP(D380,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D380,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E381" type="custom">
+      <formula1>IFNA(VLOOKUP(D381,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D381,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E382" type="custom">
+      <formula1>IFNA(VLOOKUP(D382,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D382,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E383" type="custom">
+      <formula1>IFNA(VLOOKUP(D383,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D383,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E384" type="custom">
+      <formula1>IFNA(VLOOKUP(D384,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D384,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E385" type="custom">
+      <formula1>IFNA(VLOOKUP(D385,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D385,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E386" type="custom">
+      <formula1>IFNA(VLOOKUP(D386,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D386,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E387" type="custom">
+      <formula1>IFNA(VLOOKUP(D387,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D387,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E388" type="custom">
+      <formula1>IFNA(VLOOKUP(D388,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D388,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E389" type="custom">
+      <formula1>IFNA(VLOOKUP(D389,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D389,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E390" type="custom">
+      <formula1>IFNA(VLOOKUP(D390,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D390,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E391" type="custom">
+      <formula1>IFNA(VLOOKUP(D391,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D391,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E392" type="custom">
+      <formula1>IFNA(VLOOKUP(D392,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D392,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E393" type="custom">
+      <formula1>IFNA(VLOOKUP(D393,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D393,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E394" type="custom">
+      <formula1>IFNA(VLOOKUP(D394,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D394,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E395" type="custom">
+      <formula1>IFNA(VLOOKUP(D395,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D395,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E396" type="custom">
+      <formula1>IFNA(VLOOKUP(D396,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D396,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E397" type="custom">
+      <formula1>IFNA(VLOOKUP(D397,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D397,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E398" type="custom">
+      <formula1>IFNA(VLOOKUP(D398,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D398,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E399" type="custom">
+      <formula1>IFNA(VLOOKUP(D399,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D399,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E400" type="custom">
+      <formula1>IFNA(VLOOKUP(D400,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D400,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E401" type="custom">
+      <formula1>IFNA(VLOOKUP(D401,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D401,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E402" type="custom">
+      <formula1>IFNA(VLOOKUP(D402,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D402,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E403" type="custom">
+      <formula1>IFNA(VLOOKUP(D403,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D403,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E404" type="custom">
+      <formula1>IFNA(VLOOKUP(D404,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D404,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E405" type="custom">
+      <formula1>IFNA(VLOOKUP(D405,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D405,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E406" type="custom">
+      <formula1>IFNA(VLOOKUP(D406,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D406,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E407" type="custom">
+      <formula1>IFNA(VLOOKUP(D407,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D407,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E408" type="custom">
+      <formula1>IFNA(VLOOKUP(D408,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D408,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E409" type="custom">
+      <formula1>IFNA(VLOOKUP(D409,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D409,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E410" type="custom">
+      <formula1>IFNA(VLOOKUP(D410,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D410,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E411" type="custom">
+      <formula1>IFNA(VLOOKUP(D411,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D411,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E412" type="custom">
+      <formula1>IFNA(VLOOKUP(D412,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D412,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E413" type="custom">
+      <formula1>IFNA(VLOOKUP(D413,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D413,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E414" type="custom">
+      <formula1>IFNA(VLOOKUP(D414,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D414,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E415" type="custom">
+      <formula1>IFNA(VLOOKUP(D415,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D415,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E416" type="custom">
+      <formula1>IFNA(VLOOKUP(D416,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D416,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E417" type="custom">
+      <formula1>IFNA(VLOOKUP(D417,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D417,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E418" type="custom">
+      <formula1>IFNA(VLOOKUP(D418,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D418,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E419" type="custom">
+      <formula1>IFNA(VLOOKUP(D419,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D419,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E420" type="custom">
+      <formula1>IFNA(VLOOKUP(D420,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D420,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E421" type="custom">
+      <formula1>IFNA(VLOOKUP(D421,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D421,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E422" type="custom">
+      <formula1>IFNA(VLOOKUP(D422,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D422,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E423" type="custom">
+      <formula1>IFNA(VLOOKUP(D423,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D423,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E424" type="custom">
+      <formula1>IFNA(VLOOKUP(D424,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D424,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E425" type="custom">
+      <formula1>IFNA(VLOOKUP(D425,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D425,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E426" type="custom">
+      <formula1>IFNA(VLOOKUP(D426,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D426,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E427" type="custom">
+      <formula1>IFNA(VLOOKUP(D427,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D427,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E428" type="custom">
+      <formula1>IFNA(VLOOKUP(D428,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D428,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E429" type="custom">
+      <formula1>IFNA(VLOOKUP(D429,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D429,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E430" type="custom">
+      <formula1>IFNA(VLOOKUP(D430,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D430,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E431" type="custom">
+      <formula1>IFNA(VLOOKUP(D431,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D431,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E432" type="custom">
+      <formula1>IFNA(VLOOKUP(D432,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D432,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E433" type="custom">
+      <formula1>IFNA(VLOOKUP(D433,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D433,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E434" type="custom">
+      <formula1>IFNA(VLOOKUP(D434,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D434,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E435" type="custom">
+      <formula1>IFNA(VLOOKUP(D435,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D435,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E436" type="custom">
+      <formula1>IFNA(VLOOKUP(D436,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D436,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E437" type="custom">
+      <formula1>IFNA(VLOOKUP(D437,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D437,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E438" type="custom">
+      <formula1>IFNA(VLOOKUP(D438,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D438,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E439" type="custom">
+      <formula1>IFNA(VLOOKUP(D439,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D439,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E440" type="custom">
+      <formula1>IFNA(VLOOKUP(D440,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D440,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E441" type="custom">
+      <formula1>IFNA(VLOOKUP(D441,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D441,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E442" type="custom">
+      <formula1>IFNA(VLOOKUP(D442,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D442,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E443" type="custom">
+      <formula1>IFNA(VLOOKUP(D443,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D443,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E444" type="custom">
+      <formula1>IFNA(VLOOKUP(D444,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D444,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E445" type="custom">
+      <formula1>IFNA(VLOOKUP(D445,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D445,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E446" type="custom">
+      <formula1>IFNA(VLOOKUP(D446,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D446,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E447" type="custom">
+      <formula1>IFNA(VLOOKUP(D447,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D447,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E448" type="custom">
+      <formula1>IFNA(VLOOKUP(D448,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D448,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E449" type="custom">
+      <formula1>IFNA(VLOOKUP(D449,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D449,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E450" type="custom">
+      <formula1>IFNA(VLOOKUP(D450,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D450,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E451" type="custom">
+      <formula1>IFNA(VLOOKUP(D451,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D451,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E452" type="custom">
+      <formula1>IFNA(VLOOKUP(D452,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D452,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E453" type="custom">
+      <formula1>IFNA(VLOOKUP(D453,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D453,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E454" type="custom">
+      <formula1>IFNA(VLOOKUP(D454,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D454,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E455" type="custom">
+      <formula1>IFNA(VLOOKUP(D455,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D455,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E456" type="custom">
+      <formula1>IFNA(VLOOKUP(D456,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D456,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E457" type="custom">
+      <formula1>IFNA(VLOOKUP(D457,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D457,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E458" type="custom">
+      <formula1>IFNA(VLOOKUP(D458,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D458,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E459" type="custom">
+      <formula1>IFNA(VLOOKUP(D459,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D459,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E460" type="custom">
+      <formula1>IFNA(VLOOKUP(D460,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D460,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E461" type="custom">
+      <formula1>IFNA(VLOOKUP(D461,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D461,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E462" type="custom">
+      <formula1>IFNA(VLOOKUP(D462,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D462,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E463" type="custom">
+      <formula1>IFNA(VLOOKUP(D463,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D463,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E464" type="custom">
+      <formula1>IFNA(VLOOKUP(D464,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D464,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E465" type="custom">
+      <formula1>IFNA(VLOOKUP(D465,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D465,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E466" type="custom">
+      <formula1>IFNA(VLOOKUP(D466,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D466,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E467" type="custom">
+      <formula1>IFNA(VLOOKUP(D467,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D467,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E468" type="custom">
+      <formula1>IFNA(VLOOKUP(D468,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D468,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E469" type="custom">
+      <formula1>IFNA(VLOOKUP(D469,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D469,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E470" type="custom">
+      <formula1>IFNA(VLOOKUP(D470,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D470,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E471" type="custom">
+      <formula1>IFNA(VLOOKUP(D471,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D471,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E472" type="custom">
+      <formula1>IFNA(VLOOKUP(D472,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D472,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E473" type="custom">
+      <formula1>IFNA(VLOOKUP(D473,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D473,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E474" type="custom">
+      <formula1>IFNA(VLOOKUP(D474,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D474,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E475" type="custom">
+      <formula1>IFNA(VLOOKUP(D475,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D475,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E476" type="custom">
+      <formula1>IFNA(VLOOKUP(D476,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D476,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E477" type="custom">
+      <formula1>IFNA(VLOOKUP(D477,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D477,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E478" type="custom">
+      <formula1>IFNA(VLOOKUP(D478,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D478,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E479" type="custom">
+      <formula1>IFNA(VLOOKUP(D479,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D479,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E480" type="custom">
+      <formula1>IFNA(VLOOKUP(D480,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D480,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E481" type="custom">
+      <formula1>IFNA(VLOOKUP(D481,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D481,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E482" type="custom">
+      <formula1>IFNA(VLOOKUP(D482,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D482,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E483" type="custom">
+      <formula1>IFNA(VLOOKUP(D483,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D483,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E484" type="custom">
+      <formula1>IFNA(VLOOKUP(D484,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D484,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E485" type="custom">
+      <formula1>IFNA(VLOOKUP(D485,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D485,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E486" type="custom">
+      <formula1>IFNA(VLOOKUP(D486,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D486,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E487" type="custom">
+      <formula1>IFNA(VLOOKUP(D487,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D487,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E488" type="custom">
+      <formula1>IFNA(VLOOKUP(D488,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D488,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E489" type="custom">
+      <formula1>IFNA(VLOOKUP(D489,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D489,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E490" type="custom">
+      <formula1>IFNA(VLOOKUP(D490,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D490,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E491" type="custom">
+      <formula1>IFNA(VLOOKUP(D491,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D491,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E492" type="custom">
+      <formula1>IFNA(VLOOKUP(D492,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D492,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E493" type="custom">
+      <formula1>IFNA(VLOOKUP(D493,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D493,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E494" type="custom">
+      <formula1>IFNA(VLOOKUP(D494,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D494,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E495" type="custom">
+      <formula1>IFNA(VLOOKUP(D495,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D495,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E496" type="custom">
+      <formula1>IFNA(VLOOKUP(D496,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D496,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E497" type="custom">
+      <formula1>IFNA(VLOOKUP(D497,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D497,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E498" type="custom">
+      <formula1>IFNA(VLOOKUP(D498,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D498,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E499" type="custom">
+      <formula1>IFNA(VLOOKUP(D499,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D499,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E500" type="custom">
+      <formula1>IFNA(VLOOKUP(D500,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D500,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E501" type="custom">
+      <formula1>IFNA(VLOOKUP(D501,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D501,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E502" type="custom">
+      <formula1>IFNA(VLOOKUP(D502,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D502,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E503" type="custom">
+      <formula1>IFNA(VLOOKUP(D503,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D503,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E504" type="custom">
+      <formula1>IFNA(VLOOKUP(D504,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D504,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E505" type="custom">
+      <formula1>IFNA(VLOOKUP(D505,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D505,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E506" type="custom">
+      <formula1>IFNA(VLOOKUP(D506,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D506,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E507" type="custom">
+      <formula1>IFNA(VLOOKUP(D507,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D507,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E508" type="custom">
+      <formula1>IFNA(VLOOKUP(D508,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D508,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E509" type="custom">
+      <formula1>IFNA(VLOOKUP(D509,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D509,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E510" type="custom">
+      <formula1>IFNA(VLOOKUP(D510,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D510,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E511" type="custom">
+      <formula1>IFNA(VLOOKUP(D511,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D511,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E512" type="custom">
+      <formula1>IFNA(VLOOKUP(D512,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D512,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E513" type="custom">
+      <formula1>IFNA(VLOOKUP(D513,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D513,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E514" type="custom">
+      <formula1>IFNA(VLOOKUP(D514,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D514,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E515" type="custom">
+      <formula1>IFNA(VLOOKUP(D515,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D515,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E516" type="custom">
+      <formula1>IFNA(VLOOKUP(D516,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D516,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E517" type="custom">
+      <formula1>IFNA(VLOOKUP(D517,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D517,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E518" type="custom">
+      <formula1>IFNA(VLOOKUP(D518,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D518,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E519" type="custom">
+      <formula1>IFNA(VLOOKUP(D519,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D519,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E520" type="custom">
+      <formula1>IFNA(VLOOKUP(D520,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D520,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E521" type="custom">
+      <formula1>IFNA(VLOOKUP(D521,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D521,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E522" type="custom">
+      <formula1>IFNA(VLOOKUP(D522,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D522,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E523" type="custom">
+      <formula1>IFNA(VLOOKUP(D523,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D523,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E524" type="custom">
+      <formula1>IFNA(VLOOKUP(D524,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D524,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E525" type="custom">
+      <formula1>IFNA(VLOOKUP(D525,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D525,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E526" type="custom">
+      <formula1>IFNA(VLOOKUP(D526,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D526,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E527" type="custom">
+      <formula1>IFNA(VLOOKUP(D527,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D527,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E528" type="custom">
+      <formula1>IFNA(VLOOKUP(D528,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D528,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E529" type="custom">
+      <formula1>IFNA(VLOOKUP(D529,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D529,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E530" type="custom">
+      <formula1>IFNA(VLOOKUP(D530,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D530,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E531" type="custom">
+      <formula1>IFNA(VLOOKUP(D531,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D531,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E532" type="custom">
+      <formula1>IFNA(VLOOKUP(D532,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D532,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E533" type="custom">
+      <formula1>IFNA(VLOOKUP(D533,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D533,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E534" type="custom">
+      <formula1>IFNA(VLOOKUP(D534,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D534,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E535" type="custom">
+      <formula1>IFNA(VLOOKUP(D535,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D535,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E536" type="custom">
+      <formula1>IFNA(VLOOKUP(D536,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D536,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E537" type="custom">
+      <formula1>IFNA(VLOOKUP(D537,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D537,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E538" type="custom">
+      <formula1>IFNA(VLOOKUP(D538,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D538,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E539" type="custom">
+      <formula1>IFNA(VLOOKUP(D539,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D539,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E540" type="custom">
+      <formula1>IFNA(VLOOKUP(D540,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D540,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E541" type="custom">
+      <formula1>IFNA(VLOOKUP(D541,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D541,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E542" type="custom">
+      <formula1>IFNA(VLOOKUP(D542,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D542,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E543" type="custom">
+      <formula1>IFNA(VLOOKUP(D543,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D543,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E544" type="custom">
+      <formula1>IFNA(VLOOKUP(D544,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D544,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E545" type="custom">
+      <formula1>IFNA(VLOOKUP(D545,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D545,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E546" type="custom">
+      <formula1>IFNA(VLOOKUP(D546,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D546,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E547" type="custom">
+      <formula1>IFNA(VLOOKUP(D547,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D547,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E548" type="custom">
+      <formula1>IFNA(VLOOKUP(D548,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D548,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E549" type="custom">
+      <formula1>IFNA(VLOOKUP(D549,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D549,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E550" type="custom">
+      <formula1>IFNA(VLOOKUP(D550,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D550,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E551" type="custom">
+      <formula1>IFNA(VLOOKUP(D551,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D551,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E552" type="custom">
+      <formula1>IFNA(VLOOKUP(D552,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D552,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E553" type="custom">
+      <formula1>IFNA(VLOOKUP(D553,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D553,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E554" type="custom">
+      <formula1>IFNA(VLOOKUP(D554,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D554,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E555" type="custom">
+      <formula1>IFNA(VLOOKUP(D555,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D555,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E556" type="custom">
+      <formula1>IFNA(VLOOKUP(D556,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D556,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E557" type="custom">
+      <formula1>IFNA(VLOOKUP(D557,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D557,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E558" type="custom">
+      <formula1>IFNA(VLOOKUP(D558,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D558,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E559" type="custom">
+      <formula1>IFNA(VLOOKUP(D559,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D559,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E560" type="custom">
+      <formula1>IFNA(VLOOKUP(D560,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D560,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E561" type="custom">
+      <formula1>IFNA(VLOOKUP(D561,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D561,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E562" type="custom">
+      <formula1>IFNA(VLOOKUP(D562,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D562,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E563" type="custom">
+      <formula1>IFNA(VLOOKUP(D563,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D563,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E564" type="custom">
+      <formula1>IFNA(VLOOKUP(D564,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D564,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E565" type="custom">
+      <formula1>IFNA(VLOOKUP(D565,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D565,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E566" type="custom">
+      <formula1>IFNA(VLOOKUP(D566,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D566,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E567" type="custom">
+      <formula1>IFNA(VLOOKUP(D567,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D567,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E568" type="custom">
+      <formula1>IFNA(VLOOKUP(D568,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D568,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E569" type="custom">
+      <formula1>IFNA(VLOOKUP(D569,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D569,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E570" type="custom">
+      <formula1>IFNA(VLOOKUP(D570,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D570,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E571" type="custom">
+      <formula1>IFNA(VLOOKUP(D571,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D571,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E572" type="custom">
+      <formula1>IFNA(VLOOKUP(D572,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D572,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E573" type="custom">
+      <formula1>IFNA(VLOOKUP(D573,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D573,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E574" type="custom">
+      <formula1>IFNA(VLOOKUP(D574,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D574,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E575" type="custom">
+      <formula1>IFNA(VLOOKUP(D575,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D575,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E576" type="custom">
+      <formula1>IFNA(VLOOKUP(D576,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D576,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E577" type="custom">
+      <formula1>IFNA(VLOOKUP(D577,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D577,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E578" type="custom">
+      <formula1>IFNA(VLOOKUP(D578,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D578,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E579" type="custom">
+      <formula1>IFNA(VLOOKUP(D579,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D579,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E580" type="custom">
+      <formula1>IFNA(VLOOKUP(D580,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D580,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E581" type="custom">
+      <formula1>IFNA(VLOOKUP(D581,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D581,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E582" type="custom">
+      <formula1>IFNA(VLOOKUP(D582,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D582,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E583" type="custom">
+      <formula1>IFNA(VLOOKUP(D583,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D583,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E584" type="custom">
+      <formula1>IFNA(VLOOKUP(D584,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D584,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E585" type="custom">
+      <formula1>IFNA(VLOOKUP(D585,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D585,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E586" type="custom">
+      <formula1>IFNA(VLOOKUP(D586,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D586,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E587" type="custom">
+      <formula1>IFNA(VLOOKUP(D587,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D587,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E588" type="custom">
+      <formula1>IFNA(VLOOKUP(D588,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D588,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E589" type="custom">
+      <formula1>IFNA(VLOOKUP(D589,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D589,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E590" type="custom">
+      <formula1>IFNA(VLOOKUP(D590,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D590,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E591" type="custom">
+      <formula1>IFNA(VLOOKUP(D591,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D591,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E592" type="custom">
+      <formula1>IFNA(VLOOKUP(D592,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D592,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E593" type="custom">
+      <formula1>IFNA(VLOOKUP(D593,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D593,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E594" type="custom">
+      <formula1>IFNA(VLOOKUP(D594,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D594,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E595" type="custom">
+      <formula1>IFNA(VLOOKUP(D595,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D595,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E596" type="custom">
+      <formula1>IFNA(VLOOKUP(D596,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D596,name,3,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E597" type="custom">
+      <formula1>IFNA(VLOOKUP(D597,name,2,),"")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E10" type="custom">
+      <formula1>IFNA(VLOOKUP(D597,name,3,),"")</formula1>
     </dataValidation>
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E1" type="custom">
       <formula1>IFNA(VLOOKUP(D1,name,2,),"")</formula1>
